--- a/Deliverable-2/InteractionMatrix/Interatction Matrix.xlsx
+++ b/Deliverable-2/InteractionMatrix/Interatction Matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\srs\SOEN-6481-SRS\Deliverable-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\srs\SOEN-6481-SRS\Deliverable-2\InteractionMatrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67A5FC3-C978-46F8-BF93-7BD87B466114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C88A13-1721-4D51-A843-3A7C35525CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0A64BA54-F19B-4B78-90C9-5D1024EDB802}"/>
   </bookViews>
@@ -565,11 +565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67D9F34-0D94-489B-AD56-FD472715284F}">
-  <dimension ref="A1:AT47"/>
+  <dimension ref="A1:AS47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R42" sqref="R42"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y45" sqref="Y45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -579,25 +579,26 @@
     <col min="3" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="15" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="22" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="28" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="37" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="45" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="38.7109375" style="1"/>
+    <col min="40" max="40" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="44" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="38.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
@@ -730,14 +731,11 @@
       <c r="AR1" s="3">
         <v>42</v>
       </c>
-      <c r="AS1" s="3">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -871,14 +869,11 @@
         <v>0</v>
       </c>
       <c r="AS2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="2">
-        <f>SUM(C2:AS2)</f>
+        <f>SUM(C2:AR2)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1012,14 +1007,11 @@
         <v>0</v>
       </c>
       <c r="AS3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="2">
-        <f t="shared" ref="AT3:AT44" si="0">SUM(C3:AS3)</f>
+        <f>SUM(C3:AR3)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1153,14 +1145,11 @@
         <v>0</v>
       </c>
       <c r="AS4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C4:AR4)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1294,14 +1283,11 @@
         <v>0</v>
       </c>
       <c r="AS5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C5:AR5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1435,14 +1421,11 @@
         <v>0</v>
       </c>
       <c r="AS6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:AR6)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1576,14 +1559,11 @@
         <v>0</v>
       </c>
       <c r="AS7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C7:AR7)</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1711,20 +1691,17 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR8" s="2">
         <v>1000</v>
       </c>
       <c r="AS8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AT8" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C8:AR8)</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1858,14 +1835,11 @@
         <v>0</v>
       </c>
       <c r="AS9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C9:AR9)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1999,14 +1973,11 @@
         <v>0</v>
       </c>
       <c r="AS10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:AR10)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2140,14 +2111,11 @@
         <v>0</v>
       </c>
       <c r="AS11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C11:AR11)</f>
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -2281,14 +2249,11 @@
         <v>0</v>
       </c>
       <c r="AS12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C12:AR12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -2317,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K13" s="2">
         <v>1000</v>
@@ -2326,7 +2291,7 @@
         <v>1000</v>
       </c>
       <c r="M13" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -2347,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="T13" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U13" s="2">
         <v>1000</v>
       </c>
       <c r="V13" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W13" s="2">
         <v>0</v>
@@ -2422,14 +2387,11 @@
         <v>0</v>
       </c>
       <c r="AS13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C13:AR13)</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -2563,14 +2525,11 @@
         <v>0</v>
       </c>
       <c r="AS14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C14:AR14)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -2704,14 +2663,11 @@
         <v>0</v>
       </c>
       <c r="AS15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C15:AR15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2734,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -2842,17 +2798,14 @@
         <v>0</v>
       </c>
       <c r="AR16" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AS16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AT16" s="2">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <f>SUM(C16:AR16)</f>
+        <v>3000</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -2986,14 +2939,11 @@
         <v>0</v>
       </c>
       <c r="AS17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C17:AR17)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -3127,14 +3077,11 @@
         <v>0</v>
       </c>
       <c r="AS18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C18:AR18)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -3157,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -3268,14 +3215,11 @@
         <v>0</v>
       </c>
       <c r="AS19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="2">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <f>SUM(C19:AR19)</f>
+        <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -3409,14 +3353,11 @@
         <v>0</v>
       </c>
       <c r="AS20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C20:AR20)</f>
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -3550,14 +3491,11 @@
         <v>0</v>
       </c>
       <c r="AS21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C21:AR21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -3691,14 +3629,11 @@
         <v>0</v>
       </c>
       <c r="AS22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C22:AR22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3832,14 +3767,11 @@
         <v>0</v>
       </c>
       <c r="AS23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C23:AR23)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -3889,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R24" s="2">
         <v>1000</v>
@@ -3898,7 +3830,7 @@
         <v>1000</v>
       </c>
       <c r="T24" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
@@ -3967,20 +3899,17 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR24" s="2">
         <v>1</v>
       </c>
       <c r="AS24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT24" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C24:AR24)</f>
         <v>5002</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -4030,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R25" s="2">
         <v>1000</v>
@@ -4039,7 +3968,7 @@
         <v>1000</v>
       </c>
       <c r="T25" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
@@ -4108,20 +4037,17 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR25" s="2">
         <v>1</v>
       </c>
       <c r="AS25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT25" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C25:AR25)</f>
         <v>5002</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -4255,14 +4181,11 @@
         <v>0</v>
       </c>
       <c r="AS26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C26:AR26)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -4396,14 +4319,11 @@
         <v>0</v>
       </c>
       <c r="AS27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C27:AR27)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -4537,14 +4457,11 @@
         <v>0</v>
       </c>
       <c r="AS28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C28:AR28)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -4632,11 +4549,9 @@
       <c r="AC29" s="2">
         <v>0</v>
       </c>
-      <c r="AD29" s="2">
-        <v>1000</v>
-      </c>
+      <c r="AD29" s="2"/>
       <c r="AE29" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29" s="2">
         <v>1000</v>
@@ -4666,26 +4581,23 @@
         <v>0</v>
       </c>
       <c r="AO29" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP29" s="2">
         <v>1000</v>
       </c>
       <c r="AQ29" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR29" s="2">
         <v>0</v>
       </c>
       <c r="AS29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C29:AR29)</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="30" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -4771,13 +4683,13 @@
         <v>0</v>
       </c>
       <c r="AC30" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD30" s="2">
         <v>1000</v>
       </c>
       <c r="AE30" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="2">
         <v>0</v>
@@ -4807,26 +4719,23 @@
         <v>0</v>
       </c>
       <c r="AO30" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP30" s="2">
         <v>1000</v>
       </c>
       <c r="AQ30" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR30" s="2">
         <v>0</v>
       </c>
       <c r="AS30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C30:AR30)</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="31" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -4912,10 +4821,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD31" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE31" s="2">
         <v>0</v>
@@ -4948,26 +4857,23 @@
         <v>0</v>
       </c>
       <c r="AO31" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP31" s="2">
         <v>1000</v>
       </c>
       <c r="AQ31" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AR31" s="2">
         <v>0</v>
       </c>
       <c r="AS31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="2">
-        <f t="shared" si="0"/>
-        <v>3000</v>
+        <f>SUM(C31:AR31)</f>
+        <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -5062,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="AF32" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG32" s="2">
         <v>0</v>
@@ -5101,14 +5007,11 @@
         <v>0</v>
       </c>
       <c r="AS32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT32" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(C32:AR32)</f>
+        <v>1001</v>
       </c>
     </row>
-    <row r="33" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -5149,10 +5052,10 @@
         <v>0</v>
       </c>
       <c r="N33" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O33" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P33" s="2">
         <v>0</v>
@@ -5227,11 +5130,11 @@
         <v>0</v>
       </c>
       <c r="AN33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="2">
         <v>1</v>
       </c>
-      <c r="AO33" s="2">
-        <v>0</v>
-      </c>
       <c r="AP33" s="2">
         <v>0</v>
       </c>
@@ -5242,14 +5145,11 @@
         <v>0</v>
       </c>
       <c r="AS33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT33" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C33:AR33)</f>
         <v>1002</v>
       </c>
     </row>
-    <row r="34" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -5263,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -5383,14 +5283,11 @@
         <v>0</v>
       </c>
       <c r="AS34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT34" s="2">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <f>SUM(C34:AR34)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -5524,14 +5421,11 @@
         <v>0</v>
       </c>
       <c r="AS35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT35" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C35:AR35)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:45" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -5545,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -5665,14 +5559,11 @@
         <v>0</v>
       </c>
       <c r="AS36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT36" s="2">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <f>SUM(C36:AR36)</f>
+        <v>2000</v>
       </c>
     </row>
-    <row r="37" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:45" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -5806,14 +5697,11 @@
         <v>0</v>
       </c>
       <c r="AS37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT37" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C37:AR37)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:45" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -5947,14 +5835,11 @@
         <v>0</v>
       </c>
       <c r="AS38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT38" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C38:AR38)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:46" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:45" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -6088,14 +5973,11 @@
         <v>0</v>
       </c>
       <c r="AS39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(C39:AR39)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -6220,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ40" s="2">
         <v>0</v>
@@ -6229,14 +6111,11 @@
         <v>0</v>
       </c>
       <c r="AS40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="2">
-        <f t="shared" si="0"/>
-        <v>3000</v>
+        <f>SUM(C40:AR40)</f>
+        <v>3001</v>
       </c>
     </row>
-    <row r="41" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -6358,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="AO41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP41" s="2">
         <v>0</v>
@@ -6370,14 +6249,11 @@
         <v>0</v>
       </c>
       <c r="AS41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="2">
-        <f t="shared" si="0"/>
-        <v>3000</v>
+        <f>SUM(C41:AR41)</f>
+        <v>3001</v>
       </c>
     </row>
-    <row r="42" spans="1:46" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:45" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -6508,17 +6384,14 @@
         <v>0</v>
       </c>
       <c r="AR42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT42" s="2">
-        <f t="shared" si="0"/>
-        <v>1002</v>
+        <f>SUM(C42:AR42)</f>
+        <v>1003</v>
       </c>
     </row>
-    <row r="43" spans="1:46" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:45" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -6568,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="Q43" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R43" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S43" s="2">
         <v>0</v>
@@ -6646,20 +6519,17 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR43" s="2">
         <v>0</v>
       </c>
       <c r="AS43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT43" s="2">
-        <f t="shared" si="0"/>
-        <v>2002</v>
+        <f>SUM(C43:AR43)</f>
+        <v>2003</v>
       </c>
     </row>
-    <row r="44" spans="1:46" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:45" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -6669,194 +6539,190 @@
         <v>1000</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" ref="D44:AS44" si="1">SUM(D2:D43)</f>
+        <f t="shared" ref="D44:AR44" si="0">SUM(D2:D43)</f>
         <v>1000</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1001</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" si="1"/>
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="R44" s="3">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="S44" s="3">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="T44" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="U44" s="3">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="V44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <f t="shared" si="0"/>
+        <v>5002</v>
+      </c>
+      <c r="Z44" s="3">
+        <f t="shared" si="0"/>
+        <v>5002</v>
+      </c>
+      <c r="AA44" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="AB44" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="AC44" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="AD44" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="AE44" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="AF44" s="3">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="O44" s="3">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="S44" s="3">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="T44" s="3">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="U44" s="3">
-        <f t="shared" si="1"/>
-        <v>1001</v>
-      </c>
-      <c r="V44" s="3">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="W44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="3">
-        <f t="shared" si="1"/>
-        <v>5002</v>
-      </c>
-      <c r="Z44" s="3">
-        <f t="shared" si="1"/>
-        <v>5002</v>
-      </c>
-      <c r="AA44" s="3">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="AB44" s="3">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="AC44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD44" s="3">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="AE44" s="3">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="AF44" s="3">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
       <c r="AG44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AH44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1002</v>
       </c>
       <c r="AI44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="AJ44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="AK44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="AL44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AM44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="AN44" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="AO44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3002</v>
       </c>
       <c r="AP44" s="3">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3001</v>
       </c>
       <c r="AQ44" s="3">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>1003</v>
       </c>
       <c r="AR44" s="3">
-        <f t="shared" si="1"/>
-        <v>1002</v>
+        <f t="shared" si="0"/>
+        <v>2003</v>
       </c>
       <c r="AS44" s="3">
-        <f t="shared" si="1"/>
-        <v>2002</v>
-      </c>
-      <c r="AT44" s="3">
-        <f t="shared" si="0"/>
-        <v>77014</v>
+        <f>SUM(C44:AR44)</f>
+        <v>80018</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="4">
-        <f>ABS(AT44/1000)</f>
-        <v>77.013999999999996</v>
+        <f>ABS(AS44/1000)</f>
+        <v>80.018000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="4">
-        <f>ABS(MOD(AT44,1000))</f>
-        <v>14</v>
+        <f>ABS(MOD(AS44,1000))</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6864,7 +6730,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AT2" formulaRange="1"/>
+    <ignoredError sqref="AS2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7002,18 +6868,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7035,6 +6901,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA78300B-6809-4328-9FB1-404DE74CC3B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8300D725-CB29-44B5-ABD4-BA392E2791C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -7048,12 +6922,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA78300B-6809-4328-9FB1-404DE74CC3B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>